--- a/Research_agenda.xlsx
+++ b/Research_agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\research_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A7DF9-EC2F-4B43-9EC4-0EB1012F61ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454BA69-7E06-4DFE-B714-E4CFADA029AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
   <si>
     <t>Title</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Attendre les données 2026 pour continuer</t>
   </si>
   <si>
-    <t>Soumettre</t>
-  </si>
-  <si>
     <t>À soumettre avant fin mars 2026</t>
   </si>
   <si>
@@ -297,18 +294,12 @@
     <t>Continuer les analyses avec Jalil</t>
   </si>
   <si>
-    <t>Chercher une revue et le rendre plus article</t>
-  </si>
-  <si>
     <t>Piority</t>
   </si>
   <si>
     <t>The Invisible Household Debt in the Global South: Evidence from India</t>
   </si>
   <si>
-    <t>Terminer</t>
-  </si>
-  <si>
     <t>Attendre les données 2026</t>
   </si>
   <si>
@@ -328,6 +319,12 @@
   </si>
   <si>
     <t>7. Published</t>
+  </si>
+  <si>
+    <t>Terminer, à soumettre</t>
+  </si>
+  <si>
+    <t>Terminer, à envoyer à Isabelle</t>
   </si>
 </sst>
 </file>
@@ -675,7 +672,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +714,7 @@
         <v>82</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -731,10 +728,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -751,16 +748,16 @@
         <v>63</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -774,10 +771,10 @@
         <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -788,16 +785,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -814,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
         <v>73</v>
@@ -823,7 +820,7 @@
         <v>83</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -837,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -857,13 +854,13 @@
         <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -877,7 +874,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -897,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -917,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -937,10 +934,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -954,10 +951,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -971,10 +968,10 @@
         <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -988,10 +985,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1005,10 +1002,10 @@
         <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1022,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1">
         <v>2026</v>
@@ -1042,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1">
         <v>2026</v>
@@ -1062,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1">
         <v>2026</v>
@@ -1082,7 +1079,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1">
         <v>2022</v>
@@ -1105,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1">
         <v>2022</v>
@@ -1128,7 +1125,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1">
         <v>2024</v>
@@ -1151,7 +1148,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E23" s="1">
         <v>2025</v>
@@ -1174,7 +1171,7 @@
         <v>62</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1">
         <v>2025</v>
@@ -1197,7 +1194,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1">
         <v>2025</v>
@@ -1220,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1">
         <v>2026</v>
@@ -1243,7 +1240,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1">
         <v>2026</v>
@@ -1263,7 +1260,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1">
         <v>2025</v>
@@ -1283,7 +1280,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E29" s="1">
         <v>2025</v>
@@ -1303,7 +1300,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1">
         <v>2025</v>
@@ -1323,7 +1320,7 @@
         <v>57</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1">
         <v>2024</v>
@@ -1343,7 +1340,7 @@
         <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1">
         <v>2024</v>
